--- a/src/main/resources/FirstTests.xlsx
+++ b/src/main/resources/FirstTests.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhyang/IdeaProjects/doufu/doufu-management/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="17600" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="客户" sheetId="1" r:id="rId1"/>
-    <sheet name="商品" sheetId="2" r:id="rId2"/>
+    <sheet name="客户" r:id="rId1" sheetId="1"/>
+    <sheet name="商品" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,63 +28,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>姓名</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>vtg</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>qk</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>jn</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>ytd</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>f</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>fhg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张三</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>xt</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>dg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>sb</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>lh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王五</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ggg</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>gg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,114 +103,145 @@
   </si>
   <si>
     <t>张三的地址</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>xta</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>dgr</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>r</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh eb="4" sb="3">
       <t>f</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>fhg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四的地址</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>sb</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>lh</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>r</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh eb="4" sb="3">
       <t>f</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>fhg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王五的地址</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ggg</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>gg</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>r</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh eb="4" sb="3">
       <t>f</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>fhg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>qk</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>tqi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>wwj</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>stk</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豆腐</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>dou'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面筋</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>mian'jin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豆芽</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>dou'ya</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>凉皮</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>liang'pi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三2</t>
+  </si>
+  <si>
+    <t>张三搬家了</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx</t>
+  </si>
+  <si>
+    <t>张三3</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>李四搬家了</t>
+  </si>
+  <si>
+    <t>166xxxx7119</t>
+  </si>
+  <si>
+    <t>张三的地址</t>
+  </si>
+  <si>
+    <t>李四换地方</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -246,16 +277,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -269,10 +300,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -307,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -342,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -436,21 +467,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -467,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -519,14 +550,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -548,24 +579,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -581,12 +612,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -637,6 +668,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/FirstTests.xlsx
+++ b/src/main/resources/FirstTests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="17600" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView tabRatio="500" windowHeight="19820" windowWidth="33600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="客户" r:id="rId1" sheetId="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>姓名</t>
     <rPh eb="1" sb="0">
@@ -60,26 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <rPh eb="1" sb="0">
-      <t>xt</t>
-    </rPh>
-    <rPh eb="2" sb="1">
-      <t>dg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <rPh eb="1" sb="0">
-      <t>sb</t>
-    </rPh>
-    <rPh eb="2" sb="1">
-      <t>lh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王五</t>
     <rPh eb="1" sb="0">
       <t>ggg</t>
@@ -90,24 +70,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>133xxxxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186xxxxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>185xxxxxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三的地址</t>
-    <rPh eb="1" sb="0">
-      <t>xta</t>
+    <t>王五的地址</t>
+    <rPh eb="1" sb="0">
+      <t>ggg</t>
     </rPh>
     <rPh eb="2" sb="1">
-      <t>dgr</t>
+      <t>gg</t>
     </rPh>
     <rPh eb="3" sb="2">
       <t>r</t>
@@ -121,44 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四的地址</t>
-    <rPh eb="1" sb="0">
-      <t>sb</t>
-    </rPh>
-    <rPh eb="2" sb="1">
-      <t>lh</t>
-    </rPh>
-    <rPh eb="3" sb="2">
-      <t>r</t>
-    </rPh>
-    <rPh eb="4" sb="3">
-      <t>f</t>
-    </rPh>
-    <rPh eb="5" sb="4">
-      <t>fhg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五的地址</t>
-    <rPh eb="1" sb="0">
-      <t>ggg</t>
-    </rPh>
-    <rPh eb="2" sb="1">
-      <t>gg</t>
-    </rPh>
-    <rPh eb="3" sb="2">
-      <t>r</t>
-    </rPh>
-    <rPh eb="4" sb="3">
-      <t>f</t>
-    </rPh>
-    <rPh eb="5" sb="4">
-      <t>fhg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <rPh eb="1" sb="0">
       <t>qk</t>
@@ -210,9 +144,6 @@
     <t>张三2</t>
   </si>
   <si>
-    <t>张三搬家了</t>
-  </si>
-  <si>
     <t>166xxxxxxxx</t>
   </si>
   <si>
@@ -225,9 +156,6 @@
     <t>李四</t>
   </si>
   <si>
-    <t>李四搬家了</t>
-  </si>
-  <si>
     <t>166xxxx7119</t>
   </si>
   <si>
@@ -235,6 +163,147 @@
   </si>
   <si>
     <t>李四换地方</t>
+  </si>
+  <si>
+    <t>张三-1</t>
+  </si>
+  <si>
+    <t>张三的地址-1</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx-1</t>
+  </si>
+  <si>
+    <t>张三1</t>
+  </si>
+  <si>
+    <t>张三的地址1</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx11</t>
+  </si>
+  <si>
+    <t>张三的地址2</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx12</t>
+  </si>
+  <si>
+    <t>张三的地址3</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx13</t>
+  </si>
+  <si>
+    <t>张三4</t>
+  </si>
+  <si>
+    <t>张三的地址4</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx14</t>
+  </si>
+  <si>
+    <t>张三5</t>
+  </si>
+  <si>
+    <t>张三的地址5</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx15</t>
+  </si>
+  <si>
+    <t>张三6</t>
+  </si>
+  <si>
+    <t>张三的地址6</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx16</t>
+  </si>
+  <si>
+    <t>张三7</t>
+  </si>
+  <si>
+    <t>张三的地址7</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx17</t>
+  </si>
+  <si>
+    <t>张三8</t>
+  </si>
+  <si>
+    <t>张三的地址8</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx18</t>
+  </si>
+  <si>
+    <t>张三9</t>
+  </si>
+  <si>
+    <t>张三的地址9</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx19</t>
+  </si>
+  <si>
+    <t>doufu1</t>
+  </si>
+  <si>
+    <t>doufu2</t>
+  </si>
+  <si>
+    <t>doufu3</t>
+  </si>
+  <si>
+    <t>doufu4</t>
+  </si>
+  <si>
+    <t>doufu5</t>
+  </si>
+  <si>
+    <t>doufu6</t>
+  </si>
+  <si>
+    <t>doufu7</t>
+  </si>
+  <si>
+    <t>doufu8</t>
+  </si>
+  <si>
+    <t>doufu9</t>
+  </si>
+  <si>
+    <t>zhangsan</t>
+  </si>
+  <si>
+    <t>zhangsan 的地址</t>
+  </si>
+  <si>
+    <t>199xxxxxxx</t>
+  </si>
+  <si>
+    <t>张三的地址new 地址</t>
+  </si>
+  <si>
+    <t>16600007119</t>
+  </si>
+  <si>
+    <t>李四换地方ok</t>
+  </si>
+  <si>
+    <t>李四kdk</t>
+  </si>
+  <si>
+    <t>面筋</t>
+  </si>
+  <si>
+    <t>doufu10</t>
+  </si>
+  <si>
+    <t>doufu11</t>
   </si>
 </sst>
 </file>
@@ -558,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,35 +648,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -628,15 +741,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3.2</v>
@@ -644,15 +757,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>4.5</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>6.2</v>
@@ -660,10 +773,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="n">
+        <v>332.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/FirstTests.xlsx
+++ b/src/main/resources/FirstTests.xlsx
@@ -668,17 +668,6 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
@@ -779,28 +768,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="n">
-        <v>332.0</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="n">
         <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.3</v>
       </c>
     </row>
     <row r="12">
